--- a/medicine/Enfance/Contes_pour_ma_fille__et_pour_les_autres/Contes_pour_ma_fille__et_pour_les_autres.xlsx
+++ b/medicine/Enfance/Contes_pour_ma_fille__et_pour_les_autres/Contes_pour_ma_fille__et_pour_les_autres.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Contes pour ma fille... et pour les autres est l'un des deux livres de Maryse Choisy à destination des enfants, publié en 1943 aux éditions Alsatia (réédité en 1946). Elle l'écrivit effectivement pour sa fille, dans l'appartement de Passy où elle menait une vie familiale paisible.
@@ -512,7 +524,9 @@
           <t>Les thèmes chers à l'auteur</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Bien que les sujets "adultes" traditionnels de l'auteur en aient été naturellement écartés, on reconnaît en filigrane sa patte dans l'exposé de ces histoires, ainsi que ses thèmes de prédilection dans leur choix; entre autres :
 La trahison amoureuse (Histoire de la petite sylphide, inspirée de La Petite Sirène d'Andersen, modernisée et également beaucoup plus grinçante.
@@ -547,7 +561,9 @@
           <t>La coloration choysienne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parti pris de ne pas en faire des contes traditionnels se situant dans un lointain passé y est constant. L'un des inévitables princes charmants est aviateur. Un chat à l'article de la mort se voit offrir - et refuse - des tickets d'alimentation. La dernière histoire fait même intervenir un briseur d'atomes.
 Son mari y intervient en filigrane, nommé de façon mi-respectueuse, mi-ironique : Le monsieur-qui-a-tous-les-droits-sur-ma vie. Sa fille y est L'enfant-qui-cherche-l'aventure. 
